--- a/data/trans_orig/Q64D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de minutos que tarda en desplazarse para ir a trabajar</t>
+          <t>Número medio de minutos que utilizan en todos sus desplazamientos para ir a trabajar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,47</t>
+          <t>6,2; 11,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 12,4</t>
+          <t>6,06; 12,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 16,33</t>
+          <t>7,6; 15,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 31,35</t>
+          <t>10,4; 30,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,99</t>
+          <t>8,07; 15,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,01</t>
+          <t>4,48; 9,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 13,07</t>
+          <t>3,05; 13,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 50,67</t>
+          <t>12,52; 51,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,78</t>
+          <t>7,37; 11,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,65</t>
+          <t>5,75; 9,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 12,63</t>
+          <t>6,45; 12,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 32,14</t>
+          <t>13,03; 32,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,11</t>
+          <t>8,25; 12,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,91</t>
+          <t>7,4; 11,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 11,42</t>
+          <t>7,53; 11,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 19,33</t>
+          <t>7,82; 19,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,87</t>
+          <t>5,33; 8,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,28</t>
+          <t>6,71; 10,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,06</t>
+          <t>6,63; 10,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 16,48</t>
+          <t>10,53; 16,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,33</t>
+          <t>7,64; 10,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,07</t>
+          <t>7,52; 10,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,26</t>
+          <t>7,46; 10,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 17,3</t>
+          <t>9,06; 17,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,53</t>
+          <t>9,02; 15,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 12,24</t>
+          <t>6,68; 11,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 15,2</t>
+          <t>9,51; 15,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 23,89</t>
+          <t>14,93; 24,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,27</t>
+          <t>8,78; 14,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,42</t>
+          <t>7,27; 13,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,39; 19,86</t>
+          <t>12,54; 20,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,99</t>
+          <t>14,23; 21,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 13,73</t>
+          <t>9,8; 13,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,57</t>
+          <t>7,96; 11,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,36</t>
+          <t>11,44; 16,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,13</t>
+          <t>15,92; 21,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,6</t>
+          <t>8,71; 11,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 10,4</t>
+          <t>7,73; 10,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,74</t>
+          <t>8,63; 11,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 19,1</t>
+          <t>9,84; 19,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,86</t>
+          <t>7,39; 9,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 9,91</t>
+          <t>7,27; 9,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,11</t>
+          <t>8,97; 12,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,94</t>
+          <t>12,79; 17,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,51</t>
+          <t>8,51; 10,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 9,78</t>
+          <t>7,82; 9,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 11,37</t>
+          <t>9,16; 11,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,98</t>
+          <t>11,78; 17,82</t>
         </is>
       </c>
     </row>
